--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H2">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>41.06683250986949</v>
+        <v>53.46994271663167</v>
       </c>
       <c r="R2">
-        <v>41.06683250986949</v>
+        <v>481.229484449685</v>
       </c>
       <c r="S2">
-        <v>0.0009912659524030072</v>
+        <v>0.001259711958070082</v>
       </c>
       <c r="T2">
-        <v>0.0009912659524030072</v>
+        <v>0.001259711958070082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H3">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>1438.053931324307</v>
+        <v>1447.048204108262</v>
       </c>
       <c r="R3">
-        <v>1438.053931324307</v>
+        <v>13023.43383697436</v>
       </c>
       <c r="S3">
-        <v>0.03471156192770631</v>
+        <v>0.03409137608916903</v>
       </c>
       <c r="T3">
-        <v>0.03471156192770631</v>
+        <v>0.03409137608916903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H4">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I4">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J4">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>1966.720248939066</v>
+        <v>1975.039793979222</v>
       </c>
       <c r="R4">
-        <v>1966.720248939066</v>
+        <v>17775.358145813</v>
       </c>
       <c r="S4">
-        <v>0.04747244190810999</v>
+        <v>0.04653046402770912</v>
       </c>
       <c r="T4">
-        <v>0.04747244190810999</v>
+        <v>0.04653046402770912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H5">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I5">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J5">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>1436.965917009469</v>
+        <v>1481.925161225882</v>
       </c>
       <c r="R5">
-        <v>1436.965917009469</v>
+        <v>13337.32645103294</v>
       </c>
       <c r="S5">
-        <v>0.03468529957728601</v>
+        <v>0.03491305117819989</v>
       </c>
       <c r="T5">
-        <v>0.03468529957728601</v>
+        <v>0.03491305117819989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H6">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I6">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J6">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>122.3351870367427</v>
+        <v>138.4203550384067</v>
       </c>
       <c r="R6">
-        <v>122.3351870367427</v>
+        <v>1245.78319534566</v>
       </c>
       <c r="S6">
-        <v>0.002952911103169036</v>
+        <v>0.003261080293395378</v>
       </c>
       <c r="T6">
-        <v>0.002952911103169036</v>
+        <v>0.003261080293395378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H7">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I7">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J7">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>66.88709141616607</v>
+        <v>87.55026580639601</v>
       </c>
       <c r="R7">
-        <v>66.88709141616607</v>
+        <v>787.952392257564</v>
       </c>
       <c r="S7">
-        <v>0.001614512060558322</v>
+        <v>0.002062618943749616</v>
       </c>
       <c r="T7">
-        <v>0.001614512060558322</v>
+        <v>0.002062618943749616</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H8">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I8">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J8">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>2342.212410532258</v>
+        <v>2369.358343541669</v>
       </c>
       <c r="R8">
-        <v>2342.212410532258</v>
+        <v>21324.22509187501</v>
       </c>
       <c r="S8">
-        <v>0.0565360236949957</v>
+        <v>0.05582031486605982</v>
       </c>
       <c r="T8">
-        <v>0.0565360236949957</v>
+        <v>0.05582031486605982</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H9">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I9">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J9">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>3203.271083768088</v>
+        <v>3233.877766757093</v>
       </c>
       <c r="R9">
-        <v>3203.271083768088</v>
+        <v>29104.89990081383</v>
       </c>
       <c r="S9">
-        <v>0.07732014785638205</v>
+        <v>0.07618774748478928</v>
       </c>
       <c r="T9">
-        <v>0.07732014785638205</v>
+        <v>0.07618774748478928</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H10">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I10">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J10">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>2340.440320782673</v>
+        <v>2426.464947944597</v>
       </c>
       <c r="R10">
-        <v>2340.440320782673</v>
+        <v>21838.18453150137</v>
       </c>
       <c r="S10">
-        <v>0.05649324921919595</v>
+        <v>0.05716570386025394</v>
       </c>
       <c r="T10">
-        <v>0.05649324921919595</v>
+        <v>0.05716570386025393</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H11">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I11">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J11">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>199.2519105722085</v>
+        <v>226.6458174614561</v>
       </c>
       <c r="R11">
-        <v>199.2519105722085</v>
+        <v>2039.812357153104</v>
       </c>
       <c r="S11">
-        <v>0.004809517141455008</v>
+        <v>0.005339606365689235</v>
       </c>
       <c r="T11">
-        <v>0.004809517141455008</v>
+        <v>0.005339606365689235</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H12">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I12">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J12">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>113.9148441905478</v>
+        <v>148.0572257571206</v>
       </c>
       <c r="R12">
-        <v>113.9148441905478</v>
+        <v>1332.515031814085</v>
       </c>
       <c r="S12">
-        <v>0.002749661944155195</v>
+        <v>0.003488117777745689</v>
       </c>
       <c r="T12">
-        <v>0.002749661944155195</v>
+        <v>0.003488117777745689</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H13">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I13">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J13">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>3989.002304598089</v>
+        <v>4006.848179593284</v>
       </c>
       <c r="R13">
-        <v>3989.002304598089</v>
+        <v>36061.63361633956</v>
       </c>
       <c r="S13">
-        <v>0.09628602760280867</v>
+        <v>0.09439835372097749</v>
       </c>
       <c r="T13">
-        <v>0.09628602760280867</v>
+        <v>0.0943983537209775</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H14">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I14">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J14">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>5455.464106476837</v>
+        <v>5468.846566867977</v>
       </c>
       <c r="R14">
-        <v>5455.464106476837</v>
+        <v>49219.6191018118</v>
       </c>
       <c r="S14">
-        <v>0.1316832950777865</v>
+        <v>0.1288419449716607</v>
       </c>
       <c r="T14">
-        <v>0.1316832950777865</v>
+        <v>0.1288419449716607</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H15">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I15">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J15">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>3985.984273413871</v>
+        <v>4103.421791819705</v>
       </c>
       <c r="R15">
-        <v>3985.984273413871</v>
+        <v>36930.79612637734</v>
       </c>
       <c r="S15">
-        <v>0.09621317875196325</v>
+        <v>0.09667355597433251</v>
       </c>
       <c r="T15">
-        <v>0.09621317875196325</v>
+        <v>0.09667355597433251</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H16">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I16">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J16">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>339.3442571194871</v>
+        <v>383.2832562382289</v>
       </c>
       <c r="R16">
-        <v>339.3442571194871</v>
+        <v>3449.549306144061</v>
       </c>
       <c r="S16">
-        <v>0.008191048290495689</v>
+        <v>0.009029867560736224</v>
       </c>
       <c r="T16">
-        <v>0.008191048290495689</v>
+        <v>0.009029867560736225</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H17">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I17">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J17">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>99.52192674150655</v>
+        <v>130.863168439198</v>
       </c>
       <c r="R17">
-        <v>99.52192674150655</v>
+        <v>1177.768515952782</v>
       </c>
       <c r="S17">
-        <v>0.002402247543018879</v>
+        <v>0.003083038615310149</v>
       </c>
       <c r="T17">
-        <v>0.002402247543018879</v>
+        <v>0.003083038615310149</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H18">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I18">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J18">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>3484.999676300771</v>
+        <v>3541.528254058835</v>
       </c>
       <c r="R18">
-        <v>3484.999676300771</v>
+        <v>31873.75428652951</v>
       </c>
       <c r="S18">
-        <v>0.08412047660170111</v>
+        <v>0.08343576343674103</v>
       </c>
       <c r="T18">
-        <v>0.08412047660170111</v>
+        <v>0.08343576343674104</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H19">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I19">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J19">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>4766.176901734788</v>
+        <v>4833.743073250546</v>
       </c>
       <c r="R19">
-        <v>4766.176901734788</v>
+        <v>43503.68765925492</v>
       </c>
       <c r="S19">
-        <v>0.1150453686605586</v>
+        <v>0.113879380493859</v>
       </c>
       <c r="T19">
-        <v>0.1150453686605586</v>
+        <v>0.113879380493859</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H20">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I20">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J20">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>3482.362967445541</v>
+        <v>3626.886660708299</v>
       </c>
       <c r="R20">
-        <v>3482.362967445541</v>
+        <v>32641.97994637469</v>
       </c>
       <c r="S20">
-        <v>0.0840568320604777</v>
+        <v>0.08544674381403425</v>
       </c>
       <c r="T20">
-        <v>0.0840568320604777</v>
+        <v>0.08544674381403425</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H21">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I21">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J21">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>296.4687748745465</v>
+        <v>338.7721272267281</v>
       </c>
       <c r="R21">
-        <v>296.4687748745465</v>
+        <v>3048.949145040553</v>
       </c>
       <c r="S21">
-        <v>0.007156125382037749</v>
+        <v>0.007981218569654603</v>
       </c>
       <c r="T21">
-        <v>0.007156125382037749</v>
+        <v>0.007981218569654605</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H22">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I22">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J22">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>18.52859519595066</v>
+        <v>25.43558553834922</v>
       </c>
       <c r="R22">
-        <v>18.52859519595066</v>
+        <v>228.920269845143</v>
       </c>
       <c r="S22">
-        <v>0.0004472408618120178</v>
+        <v>0.0005992434185497368</v>
       </c>
       <c r="T22">
-        <v>0.0004472408618120178</v>
+        <v>0.0005992434185497369</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H23">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I23">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J23">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>648.8233334540705</v>
+        <v>688.3590388111966</v>
       </c>
       <c r="R23">
-        <v>648.8233334540705</v>
+        <v>6195.23134930077</v>
       </c>
       <c r="S23">
-        <v>0.01566121466570559</v>
+        <v>0.01621722539018866</v>
       </c>
       <c r="T23">
-        <v>0.01566121466570559</v>
+        <v>0.01621722539018866</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H24">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I24">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J24">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>887.3477969724984</v>
+        <v>939.5239842996178</v>
       </c>
       <c r="R24">
-        <v>887.3477969724984</v>
+        <v>8455.715858696562</v>
       </c>
       <c r="S24">
-        <v>0.02141868766886909</v>
+        <v>0.02213448411920111</v>
       </c>
       <c r="T24">
-        <v>0.02141868766886909</v>
+        <v>0.02213448411920111</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H25">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I25">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J25">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>648.3324415207278</v>
+        <v>704.9499641238326</v>
       </c>
       <c r="R25">
-        <v>648.3324415207278</v>
+        <v>6344.549677114494</v>
       </c>
       <c r="S25">
-        <v>0.01564936557898299</v>
+        <v>0.01660809521255849</v>
       </c>
       <c r="T25">
-        <v>0.01564936557898299</v>
+        <v>0.01660809521255849</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H26">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I26">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J26">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>55.19537349952583</v>
+        <v>65.84639148552756</v>
       </c>
       <c r="R26">
-        <v>55.19537349952583</v>
+        <v>592.6175233697481</v>
       </c>
       <c r="S26">
-        <v>0.001332298868365318</v>
+        <v>0.001551291857364989</v>
       </c>
       <c r="T26">
-        <v>0.001332298868365318</v>
+        <v>0.001551291857364989</v>
       </c>
     </row>
   </sheetData>
